--- a/files/自檢表.xlsx
+++ b/files/自檢表.xlsx
@@ -11,40 +11,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>圖片</t>
-  </si>
-  <si>
-    <t>圖片說明</t>
-  </si>
-  <si>
-    <t>合格/不合格</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+  <si>
+    <t>廠商: 贊發</t>
+  </si>
+  <si>
+    <t>料號: N03</t>
+  </si>
+  <si>
+    <t>日期: 2024/11/11</t>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>合/不合格</t>
   </si>
   <si>
     <t>備註</t>
   </si>
   <si>
-    <t>11/04數據機</t>
+    <t>項目一測試</t>
+  </si>
+  <si>
+    <t>合格</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>項目二</t>
   </si>
   <si>
     <t>不合格</t>
   </si>
   <si>
-    <t>老鼠咬的</t>
+    <t>項目三</t>
+  </si>
+  <si>
+    <t>項目四</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -67,8 +88,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -92,10 +114,10 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4762500" cy="4762500"/>
+    <xdr:ext cx="1905000" cy="1428750"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Picture 1">
@@ -111,6 +133,123 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1905000" cy="1428750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1905000" cy="1428750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1905000" cy="1428750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -452,40 +591,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="65" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="4" width="15" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1"/>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1"/>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1"/>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
   <drawing r:id="rId1"/>

--- a/files/自檢表.xlsx
+++ b/files/自檢表.xlsx
@@ -13,13 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
-    <t>廠商: 贊發</t>
-  </si>
-  <si>
-    <t>料號: N03</t>
-  </si>
-  <si>
-    <t>日期: 2024/11/11</t>
+    <t>廠商: 特建</t>
+  </si>
+  <si>
+    <t>料號: N21</t>
+  </si>
+  <si>
+    <t>日期: 2024/11/13</t>
   </si>
   <si>
     <t>項目</t>
@@ -31,7 +31,7 @@
     <t>備註</t>
   </si>
   <si>
-    <t>項目一測試</t>
+    <t>項目一</t>
   </si>
   <si>
     <t>合格</t>
@@ -43,10 +43,10 @@
     <t>項目二</t>
   </si>
   <si>
+    <t>項目三</t>
+  </si>
+  <si>
     <t>不合格</t>
-  </si>
-  <si>
-    <t>項目三</t>
   </si>
   <si>
     <t>項目四</t>
@@ -640,7 +640,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -648,10 +648,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -662,7 +662,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
